--- a/Wulinpy/GenerateXSLXtoCSV/xlsx_input/本地化数据_江湖小报.xlsx
+++ b/Wulinpy/GenerateXSLXtoCSV/xlsx_input/本地化数据_江湖小报.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\looki\OneDrive\Desktop\WulinSH\Wulinpy\GenerateXSLXtoCSV\xlsx_input\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37B7FCE0-F3F4-4A2F-99CD-0B890E71C395}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
-    <sheet name="LocData" sheetId="1" r:id="rId1"/>
+    <sheet name="LocData@Info" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="318">
   <si>
     <t>备注</t>
   </si>
@@ -205,19 +199,19 @@
     <t>NewsContent_Rank</t>
   </si>
   <si>
-    <t>本期{0}实力排名
+    <t xml:space="preserve">本期{0}实力排名
 魁首 {1}
 榜眼 {2}
 探花 {3}</t>
   </si>
   <si>
-    <t>本期{0}實力排名
+    <t xml:space="preserve">本期{0}實力排名
 魁首 {1}
 榜眼 {2}
 探花 {3}</t>
   </si>
   <si>
-    <t>Current {0} Power Ranking
+    <t xml:space="preserve">Current {0} Power Ranking
 First Place {1}
 Second Place {2}
 Third Place {3}</t>
@@ -226,13 +220,13 @@
     <t>NewsContent_Competition</t>
   </si>
   <si>
-    <t>本期{0}排名
+    <t xml:space="preserve">本期{0}排名
 魁首 {1}
 榜眼 {2}
 探花 {3}</t>
   </si>
   <si>
-    <t>Current {0} Ranking
+    <t xml:space="preserve">Current {0} Ranking
 First Place {1}
 Second Place {2}
 Third Place {3}</t>
@@ -277,7 +271,7 @@
     <t>AuctionHiddenNews</t>
   </si>
   <si>
-    <r>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <rPr>
         <sz val="10.5"/>
         <color theme="1"/>
@@ -286,7 +280,7 @@
       </rPr>
       <t>{0}</t>
     </r>
-    <r>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <rPr>
         <sz val="10.5"/>
         <color theme="1"/>
@@ -295,7 +289,7 @@
       </rPr>
       <t>惊现顶级拍品</t>
     </r>
-    <r>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <rPr>
         <sz val="10.5"/>
         <color theme="1"/>
@@ -304,7 +298,7 @@
       </rPr>
       <t>{1}</t>
     </r>
-    <r>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <rPr>
         <sz val="10.5"/>
         <color theme="1"/>
@@ -313,7 +307,7 @@
       </rPr>
       <t>，经过一番精彩激烈的角逐，终于被</t>
     </r>
-    <r>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <rPr>
         <sz val="10.5"/>
         <color theme="1"/>
@@ -322,7 +316,7 @@
       </rPr>
       <t>{2}</t>
     </r>
-    <r>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <rPr>
         <sz val="10.5"/>
         <color theme="1"/>
@@ -354,7 +348,7 @@
     <t>五年前，汴京淪陷，二宗被北燕俘獲，康王倉皇出逃，在八位大俠的護送下歷經磨難終於逃出生天，並在霖安城重新建立新宋政權，誓和北燕抗爭到底。</t>
   </si>
   <si>
-    <t>Five years ago, Bianjing fell, two sects were captured by Beiyan, Kang Wang fled in panic, and with the escort of eight heroes, he finally escaped and established a new Song regime in Lin'an City, vowing to resist Beiyan to the end.</t>
+    <t>Five years ago, Bianjing fell, two sects were captured by Beiyan, Duke Kang fled in panic, and with the escort of eight heroes, he finally escaped and established a new Song regime in Lin'an City, vowing to resist Beiyan to the end.</t>
   </si>
   <si>
     <t>TestKey_逸闻掌故_2</t>
@@ -438,7 +432,7 @@
     <t>五年前，北燕攻破汴京城，時有八位匿名大俠在汴京城協力守護汴京，面對敵兵攻勢毫無懼色，以一當千，但終究難以扭轉大勢，只能護著康王南下霖安。</t>
   </si>
   <si>
-    <t>Five years ago, when Beiyan broke through Bianjing City, eight anonymous heroes defended Bianjing City together. They faced the enemy's offensive without fear, fighting a thousand enemies alone, but in the end, they could not reverse the situation and could only protect Kang Wang to retreat to Lin'an.</t>
+    <t>Five years ago, when Beiyan broke through Bianjing City, eight anonymous heroes defended Bianjing City together. They faced the enemy's offensive without fear, fighting a thousand enemies alone, but in the end, they could not reverse the situation and could only protect Duke Kang to retreat to Lin'an.</t>
   </si>
   <si>
     <t>TestKey_人物点评_1</t>
@@ -450,7 +444,7 @@
     <t>柴王爺：前朝皇室的後代，財力頗豐，憑著擁護康王登基而獲封王爵，是新宋三大棟樑之一。</t>
   </si>
   <si>
-    <t>Chai Wangye: A descendant of the former royal family, he is wealthy and was granted a royal title for supporting Kang Wang's ascension to the throne. He is one of the three pillars of the New Song.</t>
+    <t>Chai Wangye: A descendant of the former royal family, he is wealthy and was granted a royal title for supporting Duke Kang's ascension to the throne. He is one of the three pillars of the New Song.</t>
   </si>
   <si>
     <t>TestKey_人物点评_2</t>
@@ -510,7 +504,7 @@
     <t>柳生武藏：蚍蜉城的領導者，出身自柳生劍道世家，曾經剿滅鑄劍世家歐冶家。</t>
   </si>
   <si>
-    <t>Liu Sheng Wucang: The leader of Dragonfly City, born into the Liu Sheng swordsmanship family, once exterminated the sword-making family, the Ouye family.</t>
+    <t>Yagyū Musashi: The leader of Dragonfly City, born into the Liu Sheng swordsmanship family, once exterminated the sword-making family, the Ouye family.</t>
   </si>
   <si>
     <t>TestKey_人物点评_7</t>
@@ -522,7 +516,7 @@
     <t>陳么：九江水寨的首領，憑藉“等貴賤、均貧富”的口號，聚集了大量的追隨者，是江湖一大豪俠。</t>
   </si>
   <si>
-    <t>Chen Yao: The leader of Jiujiang Water Camp. With the slogan "equality of nobility and poverty, equal distribution of wealth", he has gathered a large number of followers and is a great hero in the martial arts world.</t>
+    <t>Chen Yao: The leader of Jiujiang Fotress. With the slogan "equality of nobility and poverty, equal distribution of wealth", he has gathered a large number of followers and is a great hero in the martial arts world.</t>
   </si>
   <si>
     <t>TestKey_人物点评_8</t>
@@ -558,7 +552,7 @@
     <t>無名客棧老闆娘：無名小村客棧老闆娘，獨自一人經營客棧，手藝和長相都是一絕，可惜脾氣實在是……</t>
   </si>
   <si>
-    <t>Nameless hotel owner: The owner of the inn in Nameless Village. She runs the inn alone. Her cooking skills and appearance are unparalleled, but her temper is really...</t>
+    <t>Nameless Inn owner: The owner of the inn in Nameless Village. She runs the inn alone. Her cooking skills and appearance are unparalleled, but her temper is really...</t>
   </si>
   <si>
     <t>TestKey_人物点评_11</t>
@@ -1047,18 +1041,24 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1078,27 +1078,326 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="10.5"/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <name val="等线"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10.5"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <name val="等线"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -1139,29 +1438,467 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+  <cellXfs count="63">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
+    <xf numFmtId="42" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="2" applyFill="1" borderId="0" applyBorder="1" xfId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="3" applyFill="1" borderId="4" applyBorder="1" xfId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="4" applyFill="1" borderId="0" applyBorder="1" xfId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="5" applyFill="1" borderId="0" applyBorder="1" xfId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="6" applyFill="1" borderId="0" applyBorder="1" xfId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="9" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="11">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="10" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="12">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="7" applyFill="1" borderId="5" applyBorder="1" xfId="13">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="8" applyFill="1" borderId="0" applyBorder="1" xfId="14">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="11" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="15">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="12" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="16">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="13" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="17">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="14" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="18">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="15" applyFont="1" fillId="0" applyFill="1" borderId="6" applyBorder="1" xfId="19">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="16" applyFont="1" fillId="0" applyFill="1" borderId="6" applyBorder="1" xfId="20">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="9" applyFill="1" borderId="0" applyBorder="1" xfId="21">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="11" applyFont="1" fillId="0" applyFill="1" borderId="7" applyBorder="1" xfId="22">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="10" applyFill="1" borderId="0" applyBorder="1" xfId="23">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="17" applyFont="1" fillId="11" applyFill="1" borderId="8" applyBorder="1" xfId="24">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="11" applyFill="1" borderId="4" applyBorder="1" xfId="25">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="19" applyFont="1" fillId="12" applyFill="1" borderId="9" applyBorder="1" xfId="26">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="13" applyFill="1" borderId="0" applyBorder="1" xfId="27">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="14" applyFill="1" borderId="0" applyBorder="1" xfId="28">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="0" applyFill="1" borderId="10" applyBorder="1" xfId="29">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="21" applyFont="1" fillId="0" applyFill="1" borderId="11" applyBorder="1" xfId="30">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="22" applyFont="1" fillId="15" applyFill="1" borderId="0" applyBorder="1" xfId="31">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="23" applyFont="1" fillId="16" applyFill="1" borderId="0" applyBorder="1" xfId="32">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="17" applyFill="1" borderId="0" applyBorder="1" xfId="33">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="18" applyFill="1" borderId="0" applyBorder="1" xfId="34">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="19" applyFill="1" borderId="0" applyBorder="1" xfId="35">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="20" applyFill="1" borderId="0" applyBorder="1" xfId="36">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="21" applyFill="1" borderId="0" applyBorder="1" xfId="37">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="22" applyFill="1" borderId="0" applyBorder="1" xfId="38">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="23" applyFill="1" borderId="0" applyBorder="1" xfId="39">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="24" applyFill="1" borderId="0" applyBorder="1" xfId="40">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="25" applyFill="1" borderId="0" applyBorder="1" xfId="41">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="26" applyFill="1" borderId="0" applyBorder="1" xfId="42">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="27" applyFill="1" borderId="0" applyBorder="1" xfId="43">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="28" applyFill="1" borderId="0" applyBorder="1" xfId="44">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="29" applyFill="1" borderId="0" applyBorder="1" xfId="45">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="30" applyFill="1" borderId="0" applyBorder="1" xfId="46">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="31" applyFill="1" borderId="0" applyBorder="1" xfId="47">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="32" applyFill="1" borderId="0" applyBorder="1" xfId="48">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0"/>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="0"/>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="0"/>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="3" applyBorder="1" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -1176,9 +1913,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1436,1648 +2170,1681 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F531"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F81"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
       <selection activeCell="C81" sqref="C81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="28.7109375" customWidth="1"/>
-    <col min="2" max="2" width="22.28515625" customWidth="1"/>
-    <col min="3" max="3" width="34.7109375" customWidth="1"/>
-    <col min="4" max="4" width="91.5703125" customWidth="1"/>
-    <col min="5" max="5" width="43.140625" customWidth="1"/>
-    <col min="6" max="6" width="9" customWidth="1"/>
-    <col min="7" max="7" width="9" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="28.75" customWidth="1" style="52"/>
+    <col min="2" max="2" width="22.25" customWidth="1" style="52"/>
+    <col min="3" max="3" width="34.75" customWidth="1" style="52"/>
+    <col min="4" max="4" width="91.625" customWidth="1" style="52"/>
+    <col min="5" max="5" width="43.125" customWidth="1" style="52"/>
+    <col min="7" max="16384" width="9" customWidth="1" style="54"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
+    <row r="1">
+      <c r="A1" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="51" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="3"/>
-      <c r="B2" s="4" t="s">
+    <row r="2">
+      <c r="A2" s="55"/>
+      <c r="B2" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="51" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="3"/>
-      <c r="B3" s="4" t="s">
+    <row r="3">
+      <c r="A3" s="55"/>
+      <c r="B3" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="51" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="6"/>
-      <c r="B4" s="1">
-        <v>0</v>
-      </c>
-      <c r="C4" t="s">
+    <row r="4">
+      <c r="A4" s="58"/>
+      <c r="B4" s="53">
+        <v>0</v>
+      </c>
+      <c r="C4" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="50" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="1" customFormat="1" ht="12.75">
-      <c r="B5" s="1">
-        <v>0</v>
-      </c>
-      <c r="C5" s="1" t="s">
+    <row r="5" ht="14.25" s="53" customFormat="1">
+      <c r="B5" s="53">
+        <v>0</v>
+      </c>
+      <c r="C5" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="53" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="1" customFormat="1" ht="12.75">
-      <c r="B6" s="1">
-        <v>0</v>
-      </c>
-      <c r="C6" s="1" t="s">
+    <row r="6" ht="14.25" s="53" customFormat="1">
+      <c r="B6" s="53">
+        <v>0</v>
+      </c>
+      <c r="C6" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="53" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="1" customFormat="1" ht="12.75">
-      <c r="B7" s="1">
-        <v>0</v>
-      </c>
-      <c r="C7" s="1" t="s">
+    <row r="7" ht="14.25" s="53" customFormat="1">
+      <c r="B7" s="53">
+        <v>0</v>
+      </c>
+      <c r="C7" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="53" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="1" customFormat="1" ht="12.75">
-      <c r="B8" s="1">
-        <v>0</v>
-      </c>
-      <c r="C8" s="1" t="s">
+    <row r="8" ht="14.25" s="53" customFormat="1">
+      <c r="B8" s="53">
+        <v>0</v>
+      </c>
+      <c r="C8" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="53" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="1" customFormat="1" ht="12.75">
-      <c r="B9" s="1">
-        <v>0</v>
-      </c>
-      <c r="C9" s="1" t="s">
+    <row r="9" ht="14.25" s="53" customFormat="1">
+      <c r="B9" s="53">
+        <v>0</v>
+      </c>
+      <c r="C9" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="53" t="s">
         <v>34</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="53" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="1" customFormat="1" ht="12.75">
-      <c r="B10" s="1">
-        <v>0</v>
-      </c>
-      <c r="C10" s="1" t="s">
+    <row r="10" ht="14.25" s="53" customFormat="1">
+      <c r="B10" s="53">
+        <v>0</v>
+      </c>
+      <c r="C10" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="53" t="s">
         <v>37</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="53" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
-      <c r="B11" s="1">
-        <v>0</v>
-      </c>
-      <c r="C11" t="s">
+    <row r="11">
+      <c r="B11" s="53">
+        <v>0</v>
+      </c>
+      <c r="C11" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="50" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
-      <c r="B12" s="1">
-        <v>0</v>
-      </c>
-      <c r="C12" t="s">
+    <row r="12">
+      <c r="B12" s="53">
+        <v>0</v>
+      </c>
+      <c r="C12" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="52" t="s">
         <v>46</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="50" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
-      <c r="B13" s="1">
-        <v>0</v>
-      </c>
-      <c r="C13" t="s">
+    <row r="13">
+      <c r="B13" s="53">
+        <v>0</v>
+      </c>
+      <c r="C13" s="52" t="s">
         <v>48</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="52" t="s">
         <v>50</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="50" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
-      <c r="B14" s="1">
-        <v>0</v>
-      </c>
-      <c r="C14" t="s">
+    <row r="14">
+      <c r="B14" s="53">
+        <v>0</v>
+      </c>
+      <c r="C14" s="52" t="s">
         <v>52</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="50" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
-      <c r="B15" s="1">
-        <v>0</v>
-      </c>
-      <c r="C15" t="s">
+    <row r="15">
+      <c r="B15" s="53">
+        <v>0</v>
+      </c>
+      <c r="C15" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="52" t="s">
         <v>57</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="52" t="s">
         <v>58</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="50" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="61.5">
-      <c r="B16" s="1">
-        <v>0</v>
-      </c>
-      <c r="C16" t="s">
+    <row r="16" ht="57">
+      <c r="B16" s="53">
+        <v>0</v>
+      </c>
+      <c r="C16" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="59" t="s">
         <v>61</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="52" t="s">
         <v>62</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="50" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="17" spans="2:6" ht="61.5">
-      <c r="B17" s="1">
-        <v>0</v>
-      </c>
-      <c r="C17" t="s">
+    <row r="17" ht="57">
+      <c r="B17" s="53">
+        <v>0</v>
+      </c>
+      <c r="C17" s="52" t="s">
         <v>64</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="59" t="s">
         <v>65</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" s="50" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="18" spans="2:6">
-      <c r="B18" s="1">
-        <v>0</v>
-      </c>
-      <c r="C18" t="s">
+    <row r="18">
+      <c r="B18" s="53">
+        <v>0</v>
+      </c>
+      <c r="C18" s="52" t="s">
         <v>67</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="52" t="s">
         <v>68</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="52" t="s">
         <v>69</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="50" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="19" spans="2:6">
-      <c r="B19" s="1">
-        <v>0</v>
-      </c>
-      <c r="C19" t="s">
+    <row r="19">
+      <c r="B19" s="53">
+        <v>0</v>
+      </c>
+      <c r="C19" s="52" t="s">
         <v>71</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="52" t="s">
         <v>72</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="52" t="s">
         <v>73</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" s="50" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="20" spans="2:6">
-      <c r="B20" s="1">
-        <v>0</v>
-      </c>
-      <c r="C20" t="s">
+    <row r="20">
+      <c r="B20" s="53">
+        <v>0</v>
+      </c>
+      <c r="C20" s="52" t="s">
         <v>75</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="52" t="s">
         <v>76</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="52" t="s">
         <v>77</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="50" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="21" spans="2:6">
-      <c r="B21" s="1">
-        <v>0</v>
-      </c>
-      <c r="C21" t="s">
+    <row r="21">
+      <c r="B21" s="53">
+        <v>0</v>
+      </c>
+      <c r="C21" s="52" t="s">
         <v>79</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="60" t="s">
         <v>80</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="52" t="s">
         <v>81</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="50" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="22" spans="2:6">
-      <c r="B22" s="1">
-        <v>0</v>
-      </c>
-      <c r="C22" t="s">
+    <row r="22">
+      <c r="B22" s="53">
+        <v>0</v>
+      </c>
+      <c r="C22" s="52" t="s">
         <v>83</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="52" t="s">
         <v>84</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="52" t="s">
         <v>84</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" s="50" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="23" spans="2:6">
-      <c r="B23" s="1">
-        <v>0</v>
-      </c>
-      <c r="C23" s="9" t="s">
+    <row r="23">
+      <c r="B23" s="53">
+        <v>0</v>
+      </c>
+      <c r="C23" s="61" t="s">
         <v>85</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="52" t="s">
         <v>86</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="52" t="s">
         <v>87</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" s="50" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="24" spans="2:6">
-      <c r="B24" s="1">
-        <v>0</v>
-      </c>
-      <c r="C24" s="9" t="s">
+    <row r="24">
+      <c r="B24" s="53">
+        <v>0</v>
+      </c>
+      <c r="C24" s="61" t="s">
         <v>89</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="52" t="s">
         <v>90</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" s="52" t="s">
         <v>91</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24" s="50" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="25" spans="2:6">
-      <c r="B25" s="1">
-        <v>0</v>
-      </c>
-      <c r="C25" s="9" t="s">
+    <row r="25">
+      <c r="B25" s="53">
+        <v>0</v>
+      </c>
+      <c r="C25" s="61" t="s">
         <v>93</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="52" t="s">
         <v>94</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" s="52" t="s">
         <v>95</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F25" s="50" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="26" spans="2:6">
-      <c r="B26" s="1">
-        <v>0</v>
-      </c>
-      <c r="C26" s="9" t="s">
+    <row r="26">
+      <c r="B26" s="53">
+        <v>0</v>
+      </c>
+      <c r="C26" s="61" t="s">
         <v>97</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="52" t="s">
         <v>98</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" s="52" t="s">
         <v>99</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F26" s="50" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="2:6">
-      <c r="B27" s="1">
-        <v>0</v>
-      </c>
-      <c r="C27" s="9" t="s">
+    <row r="27">
+      <c r="B27" s="53">
+        <v>0</v>
+      </c>
+      <c r="C27" s="61" t="s">
         <v>101</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="52" t="s">
         <v>102</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" s="52" t="s">
         <v>103</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F27" s="50" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="28" spans="2:6">
-      <c r="B28" s="1">
-        <v>0</v>
-      </c>
-      <c r="C28" s="9" t="s">
+    <row r="28">
+      <c r="B28" s="53">
+        <v>0</v>
+      </c>
+      <c r="C28" s="61" t="s">
         <v>105</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="52" t="s">
         <v>106</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28" s="52" t="s">
         <v>107</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F28" s="50" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="29" spans="2:6">
-      <c r="B29" s="1">
-        <v>0</v>
-      </c>
-      <c r="C29" s="9" t="s">
+    <row r="29">
+      <c r="B29" s="53">
+        <v>0</v>
+      </c>
+      <c r="C29" s="61" t="s">
         <v>109</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="52" t="s">
         <v>110</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E29" s="52" t="s">
         <v>111</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29" s="50" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="30" spans="2:6">
-      <c r="B30" s="1">
-        <v>0</v>
-      </c>
-      <c r="C30" s="9" t="s">
+    <row r="30">
+      <c r="B30" s="53">
+        <v>0</v>
+      </c>
+      <c r="C30" s="61" t="s">
         <v>113</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="52" t="s">
         <v>114</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E30" s="52" t="s">
         <v>115</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F30" s="50" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="31" spans="2:6">
-      <c r="B31" s="1">
-        <v>0</v>
-      </c>
-      <c r="C31" s="9" t="s">
+    <row r="31">
+      <c r="B31" s="53">
+        <v>0</v>
+      </c>
+      <c r="C31" s="61" t="s">
         <v>117</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="52" t="s">
         <v>118</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E31" s="52" t="s">
         <v>119</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F31" s="50" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="32" spans="2:6">
-      <c r="B32" s="1">
-        <v>0</v>
-      </c>
-      <c r="C32" s="9" t="s">
+    <row r="32">
+      <c r="B32" s="53">
+        <v>0</v>
+      </c>
+      <c r="C32" s="61" t="s">
         <v>121</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="52" t="s">
         <v>122</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E32" s="52" t="s">
         <v>123</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F32" s="50" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="33" spans="2:6">
-      <c r="B33" s="1">
-        <v>0</v>
-      </c>
-      <c r="C33" s="9" t="s">
+    <row r="33">
+      <c r="B33" s="53">
+        <v>0</v>
+      </c>
+      <c r="C33" s="61" t="s">
         <v>125</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="52" t="s">
         <v>126</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E33" s="52" t="s">
         <v>127</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F33" s="50" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="34" spans="2:6">
-      <c r="B34" s="1">
-        <v>0</v>
-      </c>
-      <c r="C34" s="9" t="s">
+    <row r="34">
+      <c r="B34" s="53">
+        <v>0</v>
+      </c>
+      <c r="C34" s="61" t="s">
         <v>129</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="52" t="s">
         <v>130</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E34" s="52" t="s">
         <v>131</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F34" s="50" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="35" spans="2:6">
-      <c r="B35" s="1">
-        <v>0</v>
-      </c>
-      <c r="C35" s="9" t="s">
+    <row r="35">
+      <c r="B35" s="53">
+        <v>0</v>
+      </c>
+      <c r="C35" s="61" t="s">
         <v>133</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="52" t="s">
         <v>134</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E35" s="52" t="s">
         <v>135</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F35" s="50" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="36" spans="2:6">
-      <c r="B36" s="1">
-        <v>0</v>
-      </c>
-      <c r="C36" s="9" t="s">
+    <row r="36">
+      <c r="B36" s="53">
+        <v>0</v>
+      </c>
+      <c r="C36" s="61" t="s">
         <v>137</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="52" t="s">
         <v>138</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E36" s="52" t="s">
         <v>139</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F36" s="50" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="37" spans="2:6">
-      <c r="B37" s="1">
-        <v>0</v>
-      </c>
-      <c r="C37" s="9" t="s">
+    <row r="37">
+      <c r="B37" s="53">
+        <v>0</v>
+      </c>
+      <c r="C37" s="61" t="s">
         <v>141</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" s="52" t="s">
         <v>142</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E37" s="52" t="s">
         <v>143</v>
       </c>
-      <c r="F37" t="s">
+      <c r="F37" s="50" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="38" spans="2:6">
-      <c r="B38" s="1">
-        <v>0</v>
-      </c>
-      <c r="C38" s="9" t="s">
+    <row r="38">
+      <c r="B38" s="53">
+        <v>0</v>
+      </c>
+      <c r="C38" s="61" t="s">
         <v>145</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" s="52" t="s">
         <v>146</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E38" s="52" t="s">
         <v>147</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F38" s="50" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="39" spans="2:6">
-      <c r="B39" s="1">
-        <v>0</v>
-      </c>
-      <c r="C39" s="9" t="s">
+    <row r="39">
+      <c r="B39" s="53">
+        <v>0</v>
+      </c>
+      <c r="C39" s="61" t="s">
         <v>149</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" s="52" t="s">
         <v>150</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E39" s="52" t="s">
         <v>151</v>
       </c>
-      <c r="F39" t="s">
+      <c r="F39" s="50" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="40" spans="2:6">
-      <c r="B40" s="1">
-        <v>0</v>
-      </c>
-      <c r="C40" s="9" t="s">
+    <row r="40">
+      <c r="B40" s="53">
+        <v>0</v>
+      </c>
+      <c r="C40" s="61" t="s">
         <v>153</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" s="52" t="s">
         <v>154</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E40" s="52" t="s">
         <v>155</v>
       </c>
-      <c r="F40" t="s">
+      <c r="F40" s="50" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="41" spans="2:6">
-      <c r="B41" s="1">
-        <v>0</v>
-      </c>
-      <c r="C41" s="9" t="s">
+    <row r="41">
+      <c r="B41" s="53">
+        <v>0</v>
+      </c>
+      <c r="C41" s="61" t="s">
         <v>157</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" s="52" t="s">
         <v>158</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E41" s="52" t="s">
         <v>159</v>
       </c>
-      <c r="F41" t="s">
+      <c r="F41" s="50" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="42" spans="2:6">
-      <c r="B42" s="1">
-        <v>0</v>
-      </c>
-      <c r="C42" s="9" t="s">
+    <row r="42">
+      <c r="B42" s="53">
+        <v>0</v>
+      </c>
+      <c r="C42" s="61" t="s">
         <v>161</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42" s="52" t="s">
         <v>162</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E42" s="52" t="s">
         <v>163</v>
       </c>
-      <c r="F42" t="s">
+      <c r="F42" s="50" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="43" spans="2:6">
-      <c r="B43" s="1">
-        <v>0</v>
-      </c>
-      <c r="C43" s="9" t="s">
+    <row r="43">
+      <c r="B43" s="53">
+        <v>0</v>
+      </c>
+      <c r="C43" s="61" t="s">
         <v>165</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43" s="52" t="s">
         <v>166</v>
       </c>
-      <c r="E43" t="s">
+      <c r="E43" s="52" t="s">
         <v>167</v>
       </c>
-      <c r="F43" t="s">
+      <c r="F43" s="50" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="44" spans="2:6">
-      <c r="B44" s="1">
-        <v>0</v>
-      </c>
-      <c r="C44" s="9" t="s">
+    <row r="44">
+      <c r="B44" s="53">
+        <v>0</v>
+      </c>
+      <c r="C44" s="61" t="s">
         <v>169</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D44" s="52" t="s">
         <v>170</v>
       </c>
-      <c r="E44" t="s">
+      <c r="E44" s="52" t="s">
         <v>171</v>
       </c>
-      <c r="F44" t="s">
+      <c r="F44" s="50" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="45" spans="2:6">
-      <c r="B45" s="1">
-        <v>0</v>
-      </c>
-      <c r="C45" s="9" t="s">
+    <row r="45">
+      <c r="B45" s="53">
+        <v>0</v>
+      </c>
+      <c r="C45" s="61" t="s">
         <v>173</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D45" s="52" t="s">
         <v>174</v>
       </c>
-      <c r="E45" t="s">
+      <c r="E45" s="52" t="s">
         <v>175</v>
       </c>
-      <c r="F45" t="s">
+      <c r="F45" s="50" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="46" spans="2:6">
-      <c r="B46" s="1">
-        <v>0</v>
-      </c>
-      <c r="C46" s="9" t="s">
+    <row r="46">
+      <c r="B46" s="53">
+        <v>0</v>
+      </c>
+      <c r="C46" s="61" t="s">
         <v>177</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D46" s="52" t="s">
         <v>178</v>
       </c>
-      <c r="E46" t="s">
+      <c r="E46" s="52" t="s">
         <v>179</v>
       </c>
-      <c r="F46" t="s">
+      <c r="F46" s="50" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="47" spans="2:6">
-      <c r="B47" s="1">
-        <v>0</v>
-      </c>
-      <c r="C47" s="9" t="s">
+    <row r="47">
+      <c r="B47" s="53">
+        <v>0</v>
+      </c>
+      <c r="C47" s="61" t="s">
         <v>181</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D47" s="52" t="s">
         <v>182</v>
       </c>
-      <c r="E47" t="s">
+      <c r="E47" s="52" t="s">
         <v>183</v>
       </c>
-      <c r="F47" t="s">
+      <c r="F47" s="50" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="48" spans="2:6">
-      <c r="B48" s="1">
-        <v>0</v>
-      </c>
-      <c r="C48" s="9" t="s">
+    <row r="48">
+      <c r="B48" s="53">
+        <v>0</v>
+      </c>
+      <c r="C48" s="61" t="s">
         <v>185</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D48" s="52" t="s">
         <v>186</v>
       </c>
-      <c r="E48" t="s">
+      <c r="E48" s="52" t="s">
         <v>187</v>
       </c>
-      <c r="F48" t="s">
+      <c r="F48" s="50" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="49" spans="2:6">
-      <c r="B49" s="1">
-        <v>0</v>
-      </c>
-      <c r="C49" s="9" t="s">
+    <row r="49">
+      <c r="B49" s="53">
+        <v>0</v>
+      </c>
+      <c r="C49" s="61" t="s">
         <v>189</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D49" s="52" t="s">
         <v>190</v>
       </c>
-      <c r="E49" t="s">
+      <c r="E49" s="52" t="s">
         <v>191</v>
       </c>
-      <c r="F49" t="s">
+      <c r="F49" s="50" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="50" spans="2:6">
-      <c r="B50" s="1">
-        <v>0</v>
-      </c>
-      <c r="C50" s="9" t="s">
+    <row r="50">
+      <c r="B50" s="53">
+        <v>0</v>
+      </c>
+      <c r="C50" s="61" t="s">
         <v>193</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D50" s="52" t="s">
         <v>194</v>
       </c>
-      <c r="E50" t="s">
+      <c r="E50" s="52" t="s">
         <v>195</v>
       </c>
-      <c r="F50" t="s">
+      <c r="F50" s="50" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="51" spans="2:6">
-      <c r="B51" s="1">
-        <v>0</v>
-      </c>
-      <c r="C51" s="9" t="s">
+    <row r="51">
+      <c r="B51" s="53">
+        <v>0</v>
+      </c>
+      <c r="C51" s="61" t="s">
         <v>197</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D51" s="52" t="s">
         <v>198</v>
       </c>
-      <c r="E51" t="s">
+      <c r="E51" s="52" t="s">
         <v>199</v>
       </c>
-      <c r="F51" t="s">
+      <c r="F51" s="50" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="52" spans="2:6">
-      <c r="B52" s="1">
-        <v>0</v>
-      </c>
-      <c r="C52" s="9" t="s">
+    <row r="52">
+      <c r="B52" s="53">
+        <v>0</v>
+      </c>
+      <c r="C52" s="61" t="s">
         <v>201</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D52" s="52" t="s">
         <v>202</v>
       </c>
-      <c r="E52" t="s">
+      <c r="E52" s="52" t="s">
         <v>203</v>
       </c>
-      <c r="F52" t="s">
+      <c r="F52" s="50" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="53" spans="2:6">
-      <c r="B53" s="1">
-        <v>0</v>
-      </c>
-      <c r="C53" s="9" t="s">
+    <row r="53">
+      <c r="B53" s="53">
+        <v>0</v>
+      </c>
+      <c r="C53" s="61" t="s">
         <v>205</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D53" s="52" t="s">
         <v>206</v>
       </c>
-      <c r="E53" t="s">
+      <c r="E53" s="52" t="s">
         <v>207</v>
       </c>
-      <c r="F53" t="s">
+      <c r="F53" s="50" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="54" spans="2:6">
-      <c r="B54" s="1">
-        <v>0</v>
-      </c>
-      <c r="C54" s="9" t="s">
+    <row r="54">
+      <c r="B54" s="53">
+        <v>0</v>
+      </c>
+      <c r="C54" s="61" t="s">
         <v>209</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D54" s="52" t="s">
         <v>210</v>
       </c>
-      <c r="E54" t="s">
+      <c r="E54" s="52" t="s">
         <v>211</v>
       </c>
-      <c r="F54" t="s">
+      <c r="F54" s="50" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="55" spans="2:6">
-      <c r="B55" s="1">
-        <v>0</v>
-      </c>
-      <c r="C55" s="9" t="s">
+    <row r="55">
+      <c r="B55" s="53">
+        <v>0</v>
+      </c>
+      <c r="C55" s="61" t="s">
         <v>213</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D55" s="52" t="s">
         <v>214</v>
       </c>
-      <c r="E55" t="s">
+      <c r="E55" s="52" t="s">
         <v>215</v>
       </c>
-      <c r="F55" t="s">
+      <c r="F55" s="50" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="56" spans="2:6">
-      <c r="B56" s="1">
-        <v>0</v>
-      </c>
-      <c r="C56" s="9" t="s">
+    <row r="56">
+      <c r="B56" s="53">
+        <v>0</v>
+      </c>
+      <c r="C56" s="61" t="s">
         <v>217</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D56" s="52" t="s">
         <v>218</v>
       </c>
-      <c r="E56" t="s">
+      <c r="E56" s="52" t="s">
         <v>219</v>
       </c>
-      <c r="F56" t="s">
+      <c r="F56" s="50" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="57" spans="2:6">
-      <c r="B57" s="1">
-        <v>0</v>
-      </c>
-      <c r="C57" s="9" t="s">
+    <row r="57">
+      <c r="B57" s="53">
+        <v>0</v>
+      </c>
+      <c r="C57" s="61" t="s">
         <v>221</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D57" s="52" t="s">
         <v>222</v>
       </c>
-      <c r="E57" t="s">
+      <c r="E57" s="52" t="s">
         <v>223</v>
       </c>
-      <c r="F57" t="s">
+      <c r="F57" s="50" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="58" spans="2:6">
-      <c r="B58" s="1">
-        <v>0</v>
-      </c>
-      <c r="C58" s="9" t="s">
+    <row r="58">
+      <c r="B58" s="53">
+        <v>0</v>
+      </c>
+      <c r="C58" s="61" t="s">
         <v>225</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D58" s="52" t="s">
         <v>226</v>
       </c>
-      <c r="E58" t="s">
+      <c r="E58" s="52" t="s">
         <v>227</v>
       </c>
-      <c r="F58" t="s">
+      <c r="F58" s="50" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="59" spans="2:6">
-      <c r="B59" s="1">
-        <v>0</v>
-      </c>
-      <c r="C59" s="9" t="s">
+    <row r="59">
+      <c r="B59" s="53">
+        <v>0</v>
+      </c>
+      <c r="C59" s="61" t="s">
         <v>229</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D59" s="52" t="s">
         <v>230</v>
       </c>
-      <c r="E59" t="s">
+      <c r="E59" s="52" t="s">
         <v>231</v>
       </c>
-      <c r="F59" t="s">
+      <c r="F59" s="50" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="60" spans="2:6">
-      <c r="B60" s="1">
-        <v>0</v>
-      </c>
-      <c r="C60" s="9" t="s">
+    <row r="60">
+      <c r="B60" s="53">
+        <v>0</v>
+      </c>
+      <c r="C60" s="61" t="s">
         <v>233</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D60" s="52" t="s">
         <v>234</v>
       </c>
-      <c r="E60" t="s">
+      <c r="E60" s="52" t="s">
         <v>235</v>
       </c>
-      <c r="F60" t="s">
+      <c r="F60" s="50" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="61" spans="2:6">
-      <c r="B61" s="1">
-        <v>0</v>
-      </c>
-      <c r="C61" s="10" t="s">
+    <row r="61">
+      <c r="B61" s="53">
+        <v>0</v>
+      </c>
+      <c r="C61" s="62" t="s">
         <v>237</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D61" s="52" t="s">
         <v>238</v>
       </c>
-      <c r="E61" t="s">
+      <c r="E61" s="52" t="s">
         <v>239</v>
       </c>
-      <c r="F61" t="s">
+      <c r="F61" s="50" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="62" spans="2:6">
-      <c r="B62" s="1">
-        <v>0</v>
-      </c>
-      <c r="C62" s="10" t="s">
+    <row r="62">
+      <c r="B62" s="53">
+        <v>0</v>
+      </c>
+      <c r="C62" s="62" t="s">
         <v>241</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D62" s="52" t="s">
         <v>242</v>
       </c>
-      <c r="E62" t="s">
+      <c r="E62" s="52" t="s">
         <v>243</v>
       </c>
-      <c r="F62" t="s">
+      <c r="F62" s="50" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="63" spans="2:6">
-      <c r="B63" s="1">
-        <v>0</v>
-      </c>
-      <c r="C63" s="10" t="s">
+    <row r="63">
+      <c r="B63" s="53">
+        <v>0</v>
+      </c>
+      <c r="C63" s="62" t="s">
         <v>245</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D63" s="52" t="s">
         <v>246</v>
       </c>
-      <c r="E63" t="s">
+      <c r="E63" s="52" t="s">
         <v>247</v>
       </c>
-      <c r="F63" t="s">
+      <c r="F63" s="50" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="64" spans="2:6">
-      <c r="B64" s="1">
-        <v>0</v>
-      </c>
-      <c r="C64" s="10" t="s">
+    <row r="64">
+      <c r="B64" s="53">
+        <v>0</v>
+      </c>
+      <c r="C64" s="62" t="s">
         <v>249</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D64" s="52" t="s">
         <v>250</v>
       </c>
-      <c r="E64" t="s">
+      <c r="E64" s="52" t="s">
         <v>251</v>
       </c>
-      <c r="F64" t="s">
+      <c r="F64" s="50" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="65" spans="2:6">
-      <c r="B65" s="1">
-        <v>0</v>
-      </c>
-      <c r="C65" s="10" t="s">
+    <row r="65">
+      <c r="B65" s="53">
+        <v>0</v>
+      </c>
+      <c r="C65" s="62" t="s">
         <v>253</v>
       </c>
-      <c r="D65" t="s">
+      <c r="D65" s="52" t="s">
         <v>254</v>
       </c>
-      <c r="E65" t="s">
+      <c r="E65" s="52" t="s">
         <v>255</v>
       </c>
-      <c r="F65" t="s">
+      <c r="F65" s="50" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="66" spans="2:6">
-      <c r="B66" s="1">
-        <v>0</v>
-      </c>
-      <c r="C66" s="10" t="s">
+    <row r="66">
+      <c r="B66" s="53">
+        <v>0</v>
+      </c>
+      <c r="C66" s="62" t="s">
         <v>257</v>
       </c>
-      <c r="D66" t="s">
+      <c r="D66" s="52" t="s">
         <v>258</v>
       </c>
-      <c r="E66" t="s">
+      <c r="E66" s="52" t="s">
         <v>259</v>
       </c>
-      <c r="F66" t="s">
+      <c r="F66" s="50" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="67" spans="2:6">
-      <c r="B67" s="1">
-        <v>0</v>
-      </c>
-      <c r="C67" s="10" t="s">
+    <row r="67">
+      <c r="B67" s="53">
+        <v>0</v>
+      </c>
+      <c r="C67" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="D67" t="s">
+      <c r="D67" s="52" t="s">
         <v>262</v>
       </c>
-      <c r="E67" t="s">
+      <c r="E67" s="52" t="s">
         <v>263</v>
       </c>
-      <c r="F67" t="s">
+      <c r="F67" s="50" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="68" spans="2:6">
-      <c r="B68" s="1">
-        <v>0</v>
-      </c>
-      <c r="C68" s="10" t="s">
+    <row r="68">
+      <c r="B68" s="53">
+        <v>0</v>
+      </c>
+      <c r="C68" s="62" t="s">
         <v>265</v>
       </c>
-      <c r="D68" t="s">
+      <c r="D68" s="52" t="s">
         <v>266</v>
       </c>
-      <c r="E68" t="s">
+      <c r="E68" s="52" t="s">
         <v>267</v>
       </c>
-      <c r="F68" t="s">
+      <c r="F68" s="50" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="69" spans="2:6">
-      <c r="B69" s="1">
-        <v>0</v>
-      </c>
-      <c r="C69" s="10" t="s">
+    <row r="69">
+      <c r="B69" s="53">
+        <v>0</v>
+      </c>
+      <c r="C69" s="62" t="s">
         <v>269</v>
       </c>
-      <c r="D69" t="s">
+      <c r="D69" s="52" t="s">
         <v>270</v>
       </c>
-      <c r="E69" t="s">
+      <c r="E69" s="52" t="s">
         <v>271</v>
       </c>
-      <c r="F69" t="s">
+      <c r="F69" s="50" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="70" spans="2:6">
-      <c r="B70" s="1">
-        <v>0</v>
-      </c>
-      <c r="C70" s="10" t="s">
+    <row r="70">
+      <c r="B70" s="53">
+        <v>0</v>
+      </c>
+      <c r="C70" s="62" t="s">
         <v>273</v>
       </c>
-      <c r="D70" t="s">
+      <c r="D70" s="52" t="s">
         <v>274</v>
       </c>
-      <c r="E70" t="s">
+      <c r="E70" s="52" t="s">
         <v>275</v>
       </c>
-      <c r="F70" t="s">
+      <c r="F70" s="50" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="71" spans="2:6">
-      <c r="B71" s="1">
-        <v>0</v>
-      </c>
-      <c r="C71" s="10" t="s">
+    <row r="71">
+      <c r="B71" s="53">
+        <v>0</v>
+      </c>
+      <c r="C71" s="62" t="s">
         <v>277</v>
       </c>
-      <c r="D71" t="s">
+      <c r="D71" s="52" t="s">
         <v>278</v>
       </c>
-      <c r="E71" t="s">
+      <c r="E71" s="52" t="s">
         <v>279</v>
       </c>
-      <c r="F71" t="s">
+      <c r="F71" s="50" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="72" spans="2:6">
-      <c r="B72" s="1">
-        <v>0</v>
-      </c>
-      <c r="C72" s="10" t="s">
+    <row r="72">
+      <c r="B72" s="53">
+        <v>0</v>
+      </c>
+      <c r="C72" s="62" t="s">
         <v>281</v>
       </c>
-      <c r="D72" t="s">
+      <c r="D72" s="52" t="s">
         <v>282</v>
       </c>
-      <c r="E72" t="s">
+      <c r="E72" s="52" t="s">
         <v>283</v>
       </c>
-      <c r="F72" t="s">
+      <c r="F72" s="50" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="73" spans="2:6">
-      <c r="B73" s="1">
-        <v>0</v>
-      </c>
-      <c r="C73" s="10" t="s">
+    <row r="73">
+      <c r="B73" s="53">
+        <v>0</v>
+      </c>
+      <c r="C73" s="62" t="s">
         <v>285</v>
       </c>
-      <c r="D73" t="s">
+      <c r="D73" s="52" t="s">
         <v>286</v>
       </c>
-      <c r="E73" t="s">
+      <c r="E73" s="52" t="s">
         <v>287</v>
       </c>
-      <c r="F73" t="s">
+      <c r="F73" s="50" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="74" spans="2:6">
-      <c r="B74" s="1">
-        <v>0</v>
-      </c>
-      <c r="C74" s="10" t="s">
+    <row r="74">
+      <c r="B74" s="53">
+        <v>0</v>
+      </c>
+      <c r="C74" s="62" t="s">
         <v>289</v>
       </c>
-      <c r="D74" t="s">
+      <c r="D74" s="52" t="s">
         <v>290</v>
       </c>
-      <c r="E74" t="s">
+      <c r="E74" s="52" t="s">
         <v>291</v>
       </c>
-      <c r="F74" t="s">
+      <c r="F74" s="50" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="75" spans="2:6">
-      <c r="B75" s="1">
-        <v>0</v>
-      </c>
-      <c r="C75" s="10" t="s">
+    <row r="75">
+      <c r="B75" s="53">
+        <v>0</v>
+      </c>
+      <c r="C75" s="62" t="s">
         <v>293</v>
       </c>
-      <c r="D75" t="s">
+      <c r="D75" s="52" t="s">
         <v>294</v>
       </c>
-      <c r="E75" t="s">
+      <c r="E75" s="52" t="s">
         <v>295</v>
       </c>
-      <c r="F75" t="s">
+      <c r="F75" s="50" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="76" spans="2:6">
-      <c r="B76" s="1">
-        <v>0</v>
-      </c>
-      <c r="C76" s="10" t="s">
+    <row r="76">
+      <c r="B76" s="53">
+        <v>0</v>
+      </c>
+      <c r="C76" s="62" t="s">
         <v>297</v>
       </c>
-      <c r="D76" t="s">
+      <c r="D76" s="52" t="s">
         <v>298</v>
       </c>
-      <c r="E76" t="s">
+      <c r="E76" s="52" t="s">
         <v>299</v>
       </c>
-      <c r="F76" t="s">
+      <c r="F76" s="50" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="77" spans="2:6">
-      <c r="B77" s="1">
-        <v>0</v>
-      </c>
-      <c r="C77" s="10" t="s">
+    <row r="77">
+      <c r="B77" s="53">
+        <v>0</v>
+      </c>
+      <c r="C77" s="62" t="s">
         <v>301</v>
       </c>
-      <c r="D77" t="s">
+      <c r="D77" s="52" t="s">
         <v>302</v>
       </c>
-      <c r="E77" t="s">
+      <c r="E77" s="52" t="s">
         <v>303</v>
       </c>
-      <c r="F77" t="s">
+      <c r="F77" s="50" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="78" spans="2:6">
-      <c r="B78">
-        <v>0</v>
-      </c>
-      <c r="C78" s="10" t="s">
+    <row r="78">
+      <c r="B78" s="52">
+        <v>0</v>
+      </c>
+      <c r="C78" s="62" t="s">
         <v>305</v>
       </c>
-      <c r="D78" t="s">
+      <c r="D78" s="52" t="s">
         <v>306</v>
       </c>
-      <c r="E78" t="s">
+      <c r="E78" s="52" t="s">
         <v>307</v>
       </c>
-      <c r="F78" t="s">
+      <c r="F78" s="50" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="79" spans="2:6">
-      <c r="B79">
-        <v>0</v>
-      </c>
-      <c r="C79" s="10" t="s">
+    <row r="79">
+      <c r="B79" s="52">
+        <v>0</v>
+      </c>
+      <c r="C79" s="62" t="s">
         <v>309</v>
       </c>
-      <c r="D79" t="s">
+      <c r="D79" s="52" t="s">
         <v>310</v>
       </c>
-      <c r="E79" t="s">
+      <c r="E79" s="52" t="s">
         <v>311</v>
       </c>
-      <c r="F79" t="s">
+      <c r="F79" s="50" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="80" spans="2:6">
-      <c r="B80">
-        <v>0</v>
-      </c>
-      <c r="C80" s="10" t="s">
+    <row r="80">
+      <c r="B80" s="52">
+        <v>0</v>
+      </c>
+      <c r="C80" s="62" t="s">
         <v>313</v>
       </c>
-      <c r="D80" t="s">
+      <c r="D80" s="52" t="s">
         <v>314</v>
       </c>
-      <c r="E80" t="s">
+      <c r="E80" s="52" t="s">
         <v>315</v>
       </c>
-      <c r="F80" t="s">
+      <c r="F80" s="50" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="81" spans="1:1">
-      <c r="A81" t="s">
+    <row r="81">
+      <c r="A81" s="52" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="290" s="2" customFormat="1"/>
-    <row r="291" s="2" customFormat="1"/>
-    <row r="292" s="2" customFormat="1"/>
-    <row r="293" s="2" customFormat="1"/>
-    <row r="294" s="2" customFormat="1"/>
-    <row r="295" s="2" customFormat="1"/>
-    <row r="296" s="2" customFormat="1"/>
-    <row r="297" s="2" customFormat="1"/>
-    <row r="298" s="2" customFormat="1"/>
-    <row r="299" s="2" customFormat="1"/>
-    <row r="300" s="2" customFormat="1"/>
-    <row r="301" s="2" customFormat="1"/>
-    <row r="302" s="2" customFormat="1"/>
-    <row r="303" s="2" customFormat="1"/>
-    <row r="304" s="2" customFormat="1"/>
-    <row r="305" s="2" customFormat="1"/>
-    <row r="306" s="2" customFormat="1"/>
-    <row r="307" s="2" customFormat="1"/>
-    <row r="308" s="2" customFormat="1"/>
-    <row r="309" s="2" customFormat="1"/>
-    <row r="310" s="2" customFormat="1"/>
-    <row r="311" s="2" customFormat="1"/>
-    <row r="312" s="2" customFormat="1"/>
-    <row r="313" s="2" customFormat="1"/>
-    <row r="314" s="2" customFormat="1"/>
-    <row r="315" s="2" customFormat="1"/>
-    <row r="316" s="2" customFormat="1"/>
-    <row r="317" s="2" customFormat="1"/>
-    <row r="318" s="2" customFormat="1"/>
-    <row r="319" s="2" customFormat="1"/>
-    <row r="320" s="2" customFormat="1"/>
-    <row r="321" s="2" customFormat="1"/>
-    <row r="322" s="2" customFormat="1"/>
-    <row r="323" s="2" customFormat="1"/>
-    <row r="324" s="2" customFormat="1"/>
-    <row r="325" s="2" customFormat="1"/>
-    <row r="326" s="2" customFormat="1"/>
-    <row r="327" s="2" customFormat="1"/>
-    <row r="328" s="2" customFormat="1"/>
-    <row r="329" s="2" customFormat="1"/>
-    <row r="330" s="2" customFormat="1"/>
-    <row r="331" s="2" customFormat="1"/>
-    <row r="332" s="2" customFormat="1"/>
-    <row r="333" s="2" customFormat="1"/>
-    <row r="334" s="2" customFormat="1"/>
-    <row r="335" s="2" customFormat="1"/>
-    <row r="336" s="2" customFormat="1"/>
-    <row r="337" s="2" customFormat="1"/>
-    <row r="338" s="2" customFormat="1"/>
-    <row r="339" s="2" customFormat="1"/>
-    <row r="340" s="2" customFormat="1"/>
-    <row r="341" s="2" customFormat="1"/>
-    <row r="342" s="2" customFormat="1"/>
-    <row r="343" s="2" customFormat="1"/>
-    <row r="344" s="2" customFormat="1"/>
-    <row r="345" s="2" customFormat="1"/>
-    <row r="346" s="2" customFormat="1"/>
-    <row r="347" s="2" customFormat="1"/>
-    <row r="348" s="2" customFormat="1"/>
-    <row r="349" s="2" customFormat="1"/>
-    <row r="350" s="2" customFormat="1"/>
-    <row r="351" s="2" customFormat="1"/>
-    <row r="352" s="2" customFormat="1"/>
-    <row r="353" s="2" customFormat="1"/>
-    <row r="354" s="2" customFormat="1"/>
-    <row r="355" s="2" customFormat="1"/>
-    <row r="356" s="2" customFormat="1"/>
-    <row r="357" s="2" customFormat="1"/>
-    <row r="358" s="2" customFormat="1"/>
-    <row r="359" s="2" customFormat="1"/>
-    <row r="360" s="2" customFormat="1"/>
-    <row r="361" s="2" customFormat="1"/>
-    <row r="362" s="2" customFormat="1"/>
-    <row r="363" s="2" customFormat="1"/>
-    <row r="364" s="2" customFormat="1"/>
-    <row r="365" s="2" customFormat="1"/>
-    <row r="366" s="2" customFormat="1"/>
-    <row r="367" s="2" customFormat="1"/>
-    <row r="368" s="2" customFormat="1"/>
-    <row r="369" s="2" customFormat="1"/>
-    <row r="370" s="2" customFormat="1"/>
-    <row r="371" s="2" customFormat="1"/>
-    <row r="372" s="2" customFormat="1"/>
-    <row r="373" s="2" customFormat="1"/>
-    <row r="374" s="2" customFormat="1"/>
-    <row r="375" s="2" customFormat="1"/>
-    <row r="376" s="2" customFormat="1"/>
-    <row r="377" s="2" customFormat="1"/>
-    <row r="378" s="2" customFormat="1"/>
-    <row r="379" s="2" customFormat="1"/>
-    <row r="380" s="2" customFormat="1"/>
-    <row r="381" s="2" customFormat="1"/>
-    <row r="382" s="2" customFormat="1"/>
-    <row r="383" s="2" customFormat="1"/>
-    <row r="384" s="2" customFormat="1"/>
-    <row r="385" s="2" customFormat="1"/>
-    <row r="386" s="2" customFormat="1"/>
-    <row r="387" s="2" customFormat="1"/>
-    <row r="388" s="2" customFormat="1"/>
-    <row r="389" s="2" customFormat="1"/>
-    <row r="390" s="2" customFormat="1"/>
-    <row r="391" s="2" customFormat="1"/>
-    <row r="392" s="2" customFormat="1"/>
-    <row r="393" s="2" customFormat="1"/>
-    <row r="394" s="2" customFormat="1"/>
-    <row r="395" s="2" customFormat="1"/>
-    <row r="396" s="2" customFormat="1"/>
-    <row r="397" s="2" customFormat="1"/>
-    <row r="398" s="2" customFormat="1"/>
-    <row r="399" s="2" customFormat="1"/>
-    <row r="400" s="2" customFormat="1"/>
-    <row r="401" s="2" customFormat="1"/>
-    <row r="402" s="2" customFormat="1"/>
-    <row r="403" s="2" customFormat="1"/>
-    <row r="404" s="2" customFormat="1"/>
-    <row r="405" s="2" customFormat="1"/>
-    <row r="406" s="2" customFormat="1"/>
-    <row r="407" s="2" customFormat="1"/>
-    <row r="408" s="2" customFormat="1"/>
-    <row r="409" s="2" customFormat="1"/>
-    <row r="410" s="2" customFormat="1"/>
-    <row r="411" s="2" customFormat="1"/>
-    <row r="412" s="2" customFormat="1"/>
-    <row r="413" s="2" customFormat="1"/>
-    <row r="414" s="2" customFormat="1"/>
-    <row r="415" s="2" customFormat="1"/>
-    <row r="416" s="2" customFormat="1"/>
-    <row r="417" s="2" customFormat="1"/>
-    <row r="418" s="2" customFormat="1"/>
-    <row r="419" s="2" customFormat="1"/>
-    <row r="420" s="2" customFormat="1"/>
-    <row r="421" s="2" customFormat="1"/>
-    <row r="422" s="2" customFormat="1"/>
-    <row r="423" s="2" customFormat="1"/>
-    <row r="424" s="2" customFormat="1"/>
-    <row r="425" s="2" customFormat="1"/>
-    <row r="426" s="2" customFormat="1"/>
-    <row r="427" s="2" customFormat="1"/>
-    <row r="428" s="2" customFormat="1"/>
-    <row r="429" s="2" customFormat="1"/>
-    <row r="430" s="2" customFormat="1"/>
-    <row r="431" s="2" customFormat="1"/>
-    <row r="432" s="2" customFormat="1"/>
-    <row r="433" s="2" customFormat="1"/>
-    <row r="434" s="2" customFormat="1"/>
-    <row r="435" s="2" customFormat="1"/>
-    <row r="436" s="2" customFormat="1"/>
-    <row r="437" s="2" customFormat="1"/>
-    <row r="438" s="2" customFormat="1"/>
-    <row r="439" s="2" customFormat="1"/>
-    <row r="440" s="2" customFormat="1"/>
-    <row r="441" s="2" customFormat="1"/>
-    <row r="442" s="2" customFormat="1"/>
-    <row r="443" s="2" customFormat="1"/>
-    <row r="444" s="2" customFormat="1"/>
-    <row r="445" s="2" customFormat="1"/>
-    <row r="446" s="2" customFormat="1"/>
-    <row r="447" s="2" customFormat="1"/>
-    <row r="448" s="2" customFormat="1"/>
-    <row r="449" s="2" customFormat="1"/>
-    <row r="450" s="2" customFormat="1"/>
-    <row r="451" s="2" customFormat="1"/>
-    <row r="452" s="2" customFormat="1"/>
-    <row r="453" s="2" customFormat="1"/>
-    <row r="454" s="2" customFormat="1"/>
-    <row r="455" s="2" customFormat="1"/>
-    <row r="456" s="2" customFormat="1"/>
-    <row r="457" s="2" customFormat="1"/>
-    <row r="458" s="2" customFormat="1"/>
-    <row r="459" s="2" customFormat="1"/>
-    <row r="460" s="2" customFormat="1"/>
-    <row r="461" s="2" customFormat="1"/>
-    <row r="462" s="2" customFormat="1"/>
-    <row r="463" s="2" customFormat="1"/>
-    <row r="464" s="2" customFormat="1"/>
-    <row r="465" s="2" customFormat="1"/>
-    <row r="466" s="2" customFormat="1"/>
-    <row r="467" s="2" customFormat="1"/>
-    <row r="468" s="2" customFormat="1"/>
-    <row r="469" s="2" customFormat="1"/>
-    <row r="470" s="2" customFormat="1"/>
-    <row r="471" s="2" customFormat="1"/>
-    <row r="472" s="2" customFormat="1"/>
-    <row r="473" s="2" customFormat="1"/>
-    <row r="474" s="2" customFormat="1"/>
-    <row r="475" s="2" customFormat="1"/>
-    <row r="476" s="2" customFormat="1"/>
-    <row r="477" s="2" customFormat="1"/>
-    <row r="478" s="2" customFormat="1"/>
-    <row r="479" s="2" customFormat="1"/>
-    <row r="480" s="2" customFormat="1"/>
-    <row r="481" s="2" customFormat="1"/>
-    <row r="482" s="2" customFormat="1"/>
-    <row r="483" s="2" customFormat="1"/>
-    <row r="484" s="2" customFormat="1"/>
-    <row r="485" s="2" customFormat="1"/>
-    <row r="486" s="2" customFormat="1"/>
-    <row r="487" s="2" customFormat="1"/>
-    <row r="488" s="2" customFormat="1"/>
-    <row r="489" s="2" customFormat="1"/>
-    <row r="490" s="2" customFormat="1"/>
-    <row r="491" s="2" customFormat="1"/>
-    <row r="492" s="2" customFormat="1"/>
-    <row r="493" s="2" customFormat="1"/>
-    <row r="494" s="2" customFormat="1"/>
-    <row r="495" s="2" customFormat="1"/>
-    <row r="496" s="2" customFormat="1"/>
-    <row r="497" s="2" customFormat="1"/>
-    <row r="498" s="2" customFormat="1"/>
-    <row r="499" s="2" customFormat="1"/>
-    <row r="500" s="2" customFormat="1"/>
-    <row r="501" s="2" customFormat="1"/>
-    <row r="502" s="2" customFormat="1"/>
-    <row r="503" s="2" customFormat="1"/>
-    <row r="504" s="2" customFormat="1"/>
-    <row r="505" s="2" customFormat="1"/>
-    <row r="506" s="2" customFormat="1"/>
-    <row r="507" s="2" customFormat="1"/>
-    <row r="508" s="2" customFormat="1"/>
-    <row r="509" s="2" customFormat="1"/>
-    <row r="510" s="2" customFormat="1"/>
-    <row r="511" s="2" customFormat="1"/>
-    <row r="512" s="2" customFormat="1"/>
-    <row r="513" s="2" customFormat="1"/>
-    <row r="514" s="2" customFormat="1"/>
-    <row r="515" s="2" customFormat="1"/>
-    <row r="516" s="2" customFormat="1"/>
-    <row r="517" s="2" customFormat="1"/>
-    <row r="518" s="2" customFormat="1"/>
-    <row r="519" s="2" customFormat="1"/>
-    <row r="520" s="2" customFormat="1"/>
-    <row r="521" s="2" customFormat="1"/>
-    <row r="522" s="2" customFormat="1"/>
-    <row r="523" s="2" customFormat="1"/>
-    <row r="524" s="2" customFormat="1"/>
-    <row r="525" s="2" customFormat="1"/>
-    <row r="526" s="2" customFormat="1"/>
-    <row r="527" s="2" customFormat="1"/>
-    <row r="528" s="2" customFormat="1"/>
-    <row r="529" s="2" customFormat="1"/>
-    <row r="530" s="2" customFormat="1"/>
-    <row r="531" s="2" customFormat="1"/>
+    <row r="256" ht="14.25"/>
+    <row r="257" ht="14.25"/>
+    <row r="258" ht="14.25"/>
+    <row r="259" ht="14.25"/>
+    <row r="260" ht="14.25"/>
+    <row r="261" ht="14.25"/>
+    <row r="262" ht="14.25"/>
+    <row r="263" ht="14.25"/>
+    <row r="264" ht="14.25"/>
+    <row r="265" ht="14.25"/>
+    <row r="266" ht="14.25"/>
+    <row r="267" ht="14.25"/>
+    <row r="268" ht="14.25"/>
+    <row r="269" ht="14.25"/>
+    <row r="270" ht="14.25"/>
+    <row r="271" ht="14.25"/>
+    <row r="272" ht="14.25"/>
+    <row r="273" ht="14.25"/>
+    <row r="274" ht="14.25"/>
+    <row r="275" ht="14.25"/>
+    <row r="276" ht="14.25"/>
+    <row r="277" ht="14.25"/>
+    <row r="278" ht="14.25"/>
+    <row r="279" ht="14.25"/>
+    <row r="280" ht="14.25"/>
+    <row r="281" ht="14.25"/>
+    <row r="282" ht="14.25"/>
+    <row r="283" ht="14.25"/>
+    <row r="284" ht="14.25"/>
+    <row r="285" ht="14.25"/>
+    <row r="286" ht="14.25"/>
+    <row r="287" ht="14.25"/>
+    <row r="288" ht="14.25"/>
+    <row r="289" ht="14.25"/>
+    <row r="290" s="54" customFormat="1"/>
+    <row r="291" s="54" customFormat="1"/>
+    <row r="292" s="54" customFormat="1"/>
+    <row r="293" s="54" customFormat="1"/>
+    <row r="294" s="54" customFormat="1"/>
+    <row r="295" s="54" customFormat="1"/>
+    <row r="296" s="54" customFormat="1"/>
+    <row r="297" s="54" customFormat="1"/>
+    <row r="298" s="54" customFormat="1"/>
+    <row r="299" s="54" customFormat="1"/>
+    <row r="300" s="54" customFormat="1"/>
+    <row r="301" s="54" customFormat="1"/>
+    <row r="302" s="54" customFormat="1"/>
+    <row r="303" s="54" customFormat="1"/>
+    <row r="304" s="54" customFormat="1"/>
+    <row r="305" s="54" customFormat="1"/>
+    <row r="306" s="54" customFormat="1"/>
+    <row r="307" s="54" customFormat="1"/>
+    <row r="308" s="54" customFormat="1"/>
+    <row r="309" s="54" customFormat="1"/>
+    <row r="310" s="54" customFormat="1"/>
+    <row r="311" s="54" customFormat="1"/>
+    <row r="312" s="54" customFormat="1"/>
+    <row r="313" s="54" customFormat="1"/>
+    <row r="314" s="54" customFormat="1"/>
+    <row r="315" s="54" customFormat="1"/>
+    <row r="316" s="54" customFormat="1"/>
+    <row r="317" s="54" customFormat="1"/>
+    <row r="318" s="54" customFormat="1"/>
+    <row r="319" s="54" customFormat="1"/>
+    <row r="320" s="54" customFormat="1"/>
+    <row r="321" s="54" customFormat="1"/>
+    <row r="322" s="54" customFormat="1"/>
+    <row r="323" s="54" customFormat="1"/>
+    <row r="324" s="54" customFormat="1"/>
+    <row r="325" s="54" customFormat="1"/>
+    <row r="326" s="54" customFormat="1"/>
+    <row r="327" s="54" customFormat="1"/>
+    <row r="328" s="54" customFormat="1"/>
+    <row r="329" s="54" customFormat="1"/>
+    <row r="330" s="54" customFormat="1"/>
+    <row r="331" s="54" customFormat="1"/>
+    <row r="332" s="54" customFormat="1"/>
+    <row r="333" s="54" customFormat="1"/>
+    <row r="334" s="54" customFormat="1"/>
+    <row r="335" s="54" customFormat="1"/>
+    <row r="336" s="54" customFormat="1"/>
+    <row r="337" s="54" customFormat="1"/>
+    <row r="338" s="54" customFormat="1"/>
+    <row r="339" s="54" customFormat="1"/>
+    <row r="340" s="54" customFormat="1"/>
+    <row r="341" s="54" customFormat="1"/>
+    <row r="342" s="54" customFormat="1"/>
+    <row r="343" s="54" customFormat="1"/>
+    <row r="344" s="54" customFormat="1"/>
+    <row r="345" s="54" customFormat="1"/>
+    <row r="346" s="54" customFormat="1"/>
+    <row r="347" s="54" customFormat="1"/>
+    <row r="348" s="54" customFormat="1"/>
+    <row r="349" s="54" customFormat="1"/>
+    <row r="350" s="54" customFormat="1"/>
+    <row r="351" s="54" customFormat="1"/>
+    <row r="352" s="54" customFormat="1"/>
+    <row r="353" s="54" customFormat="1"/>
+    <row r="354" s="54" customFormat="1"/>
+    <row r="355" s="54" customFormat="1"/>
+    <row r="356" s="54" customFormat="1"/>
+    <row r="357" s="54" customFormat="1"/>
+    <row r="358" s="54" customFormat="1"/>
+    <row r="359" s="54" customFormat="1"/>
+    <row r="360" s="54" customFormat="1"/>
+    <row r="361" s="54" customFormat="1"/>
+    <row r="362" s="54" customFormat="1"/>
+    <row r="363" s="54" customFormat="1"/>
+    <row r="364" s="54" customFormat="1"/>
+    <row r="365" s="54" customFormat="1"/>
+    <row r="366" s="54" customFormat="1"/>
+    <row r="367" s="54" customFormat="1"/>
+    <row r="368" s="54" customFormat="1"/>
+    <row r="369" s="54" customFormat="1"/>
+    <row r="370" s="54" customFormat="1"/>
+    <row r="371" s="54" customFormat="1"/>
+    <row r="372" s="54" customFormat="1"/>
+    <row r="373" s="54" customFormat="1"/>
+    <row r="374" s="54" customFormat="1"/>
+    <row r="375" s="54" customFormat="1"/>
+    <row r="376" s="54" customFormat="1"/>
+    <row r="377" s="54" customFormat="1"/>
+    <row r="378" s="54" customFormat="1"/>
+    <row r="379" s="54" customFormat="1"/>
+    <row r="380" s="54" customFormat="1"/>
+    <row r="381" s="54" customFormat="1"/>
+    <row r="382" s="54" customFormat="1"/>
+    <row r="383" s="54" customFormat="1"/>
+    <row r="384" s="54" customFormat="1"/>
+    <row r="385" s="54" customFormat="1"/>
+    <row r="386" s="54" customFormat="1"/>
+    <row r="387" s="54" customFormat="1"/>
+    <row r="388" s="54" customFormat="1"/>
+    <row r="389" s="54" customFormat="1"/>
+    <row r="390" s="54" customFormat="1"/>
+    <row r="391" s="54" customFormat="1"/>
+    <row r="392" s="54" customFormat="1"/>
+    <row r="393" s="54" customFormat="1"/>
+    <row r="394" s="54" customFormat="1"/>
+    <row r="395" s="54" customFormat="1"/>
+    <row r="396" s="54" customFormat="1"/>
+    <row r="397" s="54" customFormat="1"/>
+    <row r="398" s="54" customFormat="1"/>
+    <row r="399" s="54" customFormat="1"/>
+    <row r="400" s="54" customFormat="1"/>
+    <row r="401" s="54" customFormat="1"/>
+    <row r="402" s="54" customFormat="1"/>
+    <row r="403" s="54" customFormat="1"/>
+    <row r="404" s="54" customFormat="1"/>
+    <row r="405" s="54" customFormat="1"/>
+    <row r="406" s="54" customFormat="1"/>
+    <row r="407" s="54" customFormat="1"/>
+    <row r="408" s="54" customFormat="1"/>
+    <row r="409" s="54" customFormat="1"/>
+    <row r="410" s="54" customFormat="1"/>
+    <row r="411" s="54" customFormat="1"/>
+    <row r="412" s="54" customFormat="1"/>
+    <row r="413" s="54" customFormat="1"/>
+    <row r="414" s="54" customFormat="1"/>
+    <row r="415" s="54" customFormat="1"/>
+    <row r="416" s="54" customFormat="1"/>
+    <row r="417" s="54" customFormat="1"/>
+    <row r="418" s="54" customFormat="1"/>
+    <row r="419" s="54" customFormat="1"/>
+    <row r="420" s="54" customFormat="1"/>
+    <row r="421" s="54" customFormat="1"/>
+    <row r="422" s="54" customFormat="1"/>
+    <row r="423" s="54" customFormat="1"/>
+    <row r="424" s="54" customFormat="1"/>
+    <row r="425" s="54" customFormat="1"/>
+    <row r="426" s="54" customFormat="1"/>
+    <row r="427" s="54" customFormat="1"/>
+    <row r="428" s="54" customFormat="1"/>
+    <row r="429" s="54" customFormat="1"/>
+    <row r="430" s="54" customFormat="1"/>
+    <row r="431" s="54" customFormat="1"/>
+    <row r="432" s="54" customFormat="1"/>
+    <row r="433" s="54" customFormat="1"/>
+    <row r="434" s="54" customFormat="1"/>
+    <row r="435" s="54" customFormat="1"/>
+    <row r="436" s="54" customFormat="1"/>
+    <row r="437" s="54" customFormat="1"/>
+    <row r="438" s="54" customFormat="1"/>
+    <row r="439" s="54" customFormat="1"/>
+    <row r="440" s="54" customFormat="1"/>
+    <row r="441" s="54" customFormat="1"/>
+    <row r="442" s="54" customFormat="1"/>
+    <row r="443" s="54" customFormat="1"/>
+    <row r="444" s="54" customFormat="1"/>
+    <row r="445" s="54" customFormat="1"/>
+    <row r="446" s="54" customFormat="1"/>
+    <row r="447" s="54" customFormat="1"/>
+    <row r="448" s="54" customFormat="1"/>
+    <row r="449" s="54" customFormat="1"/>
+    <row r="450" s="54" customFormat="1"/>
+    <row r="451" s="54" customFormat="1"/>
+    <row r="452" s="54" customFormat="1"/>
+    <row r="453" s="54" customFormat="1"/>
+    <row r="454" s="54" customFormat="1"/>
+    <row r="455" s="54" customFormat="1"/>
+    <row r="456" s="54" customFormat="1"/>
+    <row r="457" s="54" customFormat="1"/>
+    <row r="458" s="54" customFormat="1"/>
+    <row r="459" s="54" customFormat="1"/>
+    <row r="460" s="54" customFormat="1"/>
+    <row r="461" s="54" customFormat="1"/>
+    <row r="462" s="54" customFormat="1"/>
+    <row r="463" s="54" customFormat="1"/>
+    <row r="464" s="54" customFormat="1"/>
+    <row r="465" s="54" customFormat="1"/>
+    <row r="466" s="54" customFormat="1"/>
+    <row r="467" s="54" customFormat="1"/>
+    <row r="468" s="54" customFormat="1"/>
+    <row r="469" s="54" customFormat="1"/>
+    <row r="470" s="54" customFormat="1"/>
+    <row r="471" s="54" customFormat="1"/>
+    <row r="472" s="54" customFormat="1"/>
+    <row r="473" s="54" customFormat="1"/>
+    <row r="474" s="54" customFormat="1"/>
+    <row r="475" s="54" customFormat="1"/>
+    <row r="476" s="54" customFormat="1"/>
+    <row r="477" s="54" customFormat="1"/>
+    <row r="478" s="54" customFormat="1"/>
+    <row r="479" s="54" customFormat="1"/>
+    <row r="480" s="54" customFormat="1"/>
+    <row r="481" s="54" customFormat="1"/>
+    <row r="482" s="54" customFormat="1"/>
+    <row r="483" s="54" customFormat="1"/>
+    <row r="484" s="54" customFormat="1"/>
+    <row r="485" s="54" customFormat="1"/>
+    <row r="486" s="54" customFormat="1"/>
+    <row r="487" s="54" customFormat="1"/>
+    <row r="488" s="54" customFormat="1"/>
+    <row r="489" s="54" customFormat="1"/>
+    <row r="490" s="54" customFormat="1"/>
+    <row r="491" s="54" customFormat="1"/>
+    <row r="492" s="54" customFormat="1"/>
+    <row r="493" s="54" customFormat="1"/>
+    <row r="494" s="54" customFormat="1"/>
+    <row r="495" s="54" customFormat="1"/>
+    <row r="496" s="54" customFormat="1"/>
+    <row r="497" s="54" customFormat="1"/>
+    <row r="498" s="54" customFormat="1"/>
+    <row r="499" s="54" customFormat="1"/>
+    <row r="500" s="54" customFormat="1"/>
+    <row r="501" s="54" customFormat="1"/>
+    <row r="502" s="54" customFormat="1"/>
+    <row r="503" s="54" customFormat="1"/>
+    <row r="504" s="54" customFormat="1"/>
+    <row r="505" s="54" customFormat="1"/>
+    <row r="506" s="54" customFormat="1"/>
+    <row r="507" s="54" customFormat="1"/>
+    <row r="508" s="54" customFormat="1"/>
+    <row r="509" s="54" customFormat="1"/>
+    <row r="510" s="54" customFormat="1"/>
+    <row r="511" s="54" customFormat="1"/>
+    <row r="512" s="54" customFormat="1"/>
+    <row r="513" s="54" customFormat="1"/>
+    <row r="514" s="54" customFormat="1"/>
+    <row r="515" s="54" customFormat="1"/>
+    <row r="516" s="54" customFormat="1"/>
+    <row r="517" s="54" customFormat="1"/>
+    <row r="518" s="54" customFormat="1"/>
+    <row r="519" s="54" customFormat="1"/>
+    <row r="520" s="54" customFormat="1"/>
+    <row r="521" s="54" customFormat="1"/>
+    <row r="522" s="54" customFormat="1"/>
+    <row r="523" s="54" customFormat="1"/>
+    <row r="524" s="54" customFormat="1"/>
+    <row r="525" s="54" customFormat="1"/>
+    <row r="526" s="54" customFormat="1"/>
+    <row r="527" s="54" customFormat="1"/>
+    <row r="528" s="54" customFormat="1"/>
+    <row r="529" s="54" customFormat="1"/>
+    <row r="530" s="54" customFormat="1"/>
+    <row r="531" s="54" customFormat="1"/>
   </sheetData>
   <conditionalFormatting sqref="C1:C3">
     <cfRule type="duplicateValues" dxfId="0" priority="46"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>